--- a/CardFormatter/Data/GrabTheLoot/a_gtl.Datafile.xlsx
+++ b/CardFormatter/Data/GrabTheLoot/a_gtl.Datafile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mike\CardGenerator\CardFormatter\Data\GrabTheLoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC78BECA-7311-4D26-9C1D-8AA4701EA711}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EE9E4E-CA10-464F-BA71-D646B324C4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treasures" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,23 @@
     <sheet name="Greeds" sheetId="2" r:id="rId4"/>
     <sheet name="Characters" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="229">
   <si>
     <t>name</t>
   </si>
@@ -71,9 +82,6 @@
     <t>Any number of workers may be placed here. The oldest worker is removed each turn.</t>
   </si>
   <si>
-    <t xml:space="preserve">     Swap 1 treasure or +1{coin}.</t>
-  </si>
-  <si>
     <t>Generic Actions</t>
   </si>
   <si>
@@ -95,18 +103,6 @@
     <t>jewelry.png</t>
   </si>
   <si>
-    <t>GreedPearls</t>
-  </si>
-  <si>
-    <t>pearl.png</t>
-  </si>
-  <si>
-    <t>GreedTrinkets</t>
-  </si>
-  <si>
-    <t>trinket.png</t>
-  </si>
-  <si>
     <t>GreedCoins</t>
   </si>
   <si>
@@ -170,9 +166,6 @@
     <t>feeling1.png</t>
   </si>
   <si>
-    <t>Coins are worth double points, and are awarded bonus points as if they were items.</t>
-  </si>
-  <si>
     <t>GreedCranky</t>
   </si>
   <si>
@@ -182,15 +175,9 @@
     <t>feeling3.png</t>
   </si>
   <si>
-    <t>The player(s) with the most treasure lose 2 items each.</t>
-  </si>
-  <si>
     <t>behavior.Bribe</t>
   </si>
   <si>
-    <t>-2{coin}: Gain 3 items.</t>
-  </si>
-  <si>
     <t>Bribe</t>
   </si>
   <si>
@@ -203,15 +190,9 @@
     <t>: Gain an item.</t>
   </si>
   <si>
-    <t>-1{coin}: Gain 2 items.</t>
-  </si>
-  <si>
     <t>behavior.Cajole</t>
   </si>
   <si>
-    <t>Lose 2 items: +7{coin}.</t>
-  </si>
-  <si>
     <t>Cajole</t>
   </si>
   <si>
@@ -227,21 +208,12 @@
     <t>behavior.Deceive</t>
   </si>
   <si>
-    <t>-2{coin}: Swap 3 treasures.</t>
-  </si>
-  <si>
     <t>Deceive</t>
   </si>
   <si>
     <t>Decieve.png</t>
   </si>
   <si>
-    <t>: Swap a treasure.</t>
-  </si>
-  <si>
-    <t>-1{coin}: Swap 2 treasures.</t>
-  </si>
-  <si>
     <t>behavior.Flirt</t>
   </si>
   <si>
@@ -260,45 +232,24 @@
     <t>behavior.Gripe</t>
   </si>
   <si>
-    <t>Give a player 3{coin}: Swap 3 items with them.</t>
-  </si>
-  <si>
     <t>Gripe</t>
   </si>
   <si>
     <t>Gripe.png</t>
   </si>
   <si>
-    <t>: Swap an item with a player.</t>
-  </si>
-  <si>
-    <t>Give a player 1{coin}: Swap 2 items with them.</t>
-  </si>
-  <si>
     <t>behavior.Hoodwink</t>
   </si>
   <si>
-    <t>Put 5{coin} in the Captain's Greed: Gain 3 treasures from the Captain's Greed.</t>
-  </si>
-  <si>
     <t>Hoodwink</t>
   </si>
   <si>
     <t>Hoodwink.png</t>
   </si>
   <si>
-    <t>Put 1{coin} in the Captain's Greed: Gain a treasure from the Captain's Greed.</t>
-  </si>
-  <si>
-    <t>Put 3{coin} in the Captain's Greed: Gain 2 treasures from the Captain's Greed.</t>
-  </si>
-  <si>
     <t>behavior.Investigate</t>
   </si>
   <si>
-    <t>-3{coin}: look at the bottom 3 cards of the Greed deck.</t>
-  </si>
-  <si>
     <t>Investigate</t>
   </si>
   <si>
@@ -314,93 +265,48 @@
     <t>behavior.Jeer</t>
   </si>
   <si>
-    <t>-2{coin}: Add 3 treasures from the Captain's loot to the Captain's Greed.</t>
-  </si>
-  <si>
     <t>Jeer</t>
   </si>
   <si>
     <t>Jeer.png</t>
   </si>
   <si>
-    <t>: Add a treasure from the Captain's loot to the Captain's Greed.</t>
-  </si>
-  <si>
-    <t>-1{coin}: Add 2 treasures from the Captain's loot to the Captain's Greed.</t>
-  </si>
-  <si>
     <t>behavior.Kowtow</t>
   </si>
   <si>
-    <t>-12{coin}: Add 3 treasures from a player's loot to the Captain's Greed.</t>
-  </si>
-  <si>
     <t>Kowtow</t>
   </si>
   <si>
     <t>Kowtow.png</t>
   </si>
   <si>
-    <t>-4{coin}: Add a treasure from a player's loot to the Captain's Greed.</t>
-  </si>
-  <si>
-    <t>-8{coin}: Add 2 treasures from a player's loot to the Captain's Greed.</t>
-  </si>
-  <si>
     <t>behavior.Lie</t>
   </si>
   <si>
-    <t>-2{coin}: Add or remove 3 Captain cubes then take another turn.</t>
-  </si>
-  <si>
     <t>Lie</t>
   </si>
   <si>
     <t>Lie.png</t>
   </si>
   <si>
-    <t>: Add or Remove a Captain cube then take another turn.</t>
-  </si>
-  <si>
-    <t>-1{coin}: Add or remove 2 Captain cubes then take another turn.</t>
-  </si>
-  <si>
     <t>behavior.Menace</t>
   </si>
   <si>
-    <t>-8{coin}: Take 3 items from a player.</t>
-  </si>
-  <si>
     <t>Menace</t>
   </si>
   <si>
     <t>Menace.png</t>
   </si>
   <si>
-    <t>-2{coin}: Take an item from a player.</t>
-  </si>
-  <si>
-    <t>-5{coin}: Take 2 items from a player.</t>
-  </si>
-  <si>
     <t>behavior.Negotiate</t>
   </si>
   <si>
-    <t>-2{coin}: Choose a player. Trade 3 treasures with that player.</t>
-  </si>
-  <si>
     <t>Negotiate</t>
   </si>
   <si>
     <t>Negotiate.png</t>
   </si>
   <si>
-    <t>: Choose a player. Trade a treasure with that player.</t>
-  </si>
-  <si>
-    <t>-1{coin}: Choose a player. Trade 2 treasures with that player.</t>
-  </si>
-  <si>
     <t>behavior.Orate</t>
   </si>
   <si>
@@ -422,63 +328,33 @@
     <t>behavior.Pout.png</t>
   </si>
   <si>
-    <t>Add 2 treasures to the Captain's Greed: Bury 4 treasures.</t>
-  </si>
-  <si>
     <t>Pout</t>
   </si>
   <si>
     <t>Pout.png</t>
   </si>
   <si>
-    <t>: Bury a treasure.</t>
-  </si>
-  <si>
-    <t>Add a treasure to the Captain's Greed: Bury 2 treasures.</t>
-  </si>
-  <si>
     <t>behavior.Quibble</t>
   </si>
   <si>
-    <t>-7{coin}: Swap 3 treasures with 3 in the Captain's Greed.</t>
-  </si>
-  <si>
     <t>Quibble</t>
   </si>
   <si>
     <t>Quibble.png</t>
   </si>
   <si>
-    <t>-1{coin}: Swap a treasure with 1 in the Captain's Greed.</t>
-  </si>
-  <si>
-    <t>-4{coin}: Swap 2 treasures with 2 in the Captain's Greed.</t>
-  </si>
-  <si>
     <t>behavior.Steal</t>
   </si>
   <si>
-    <t>Give a player 2 items: Take 7{coin} from them.</t>
-  </si>
-  <si>
     <t>Steal</t>
   </si>
   <si>
     <t>Steal.png</t>
   </si>
   <si>
-    <t>Take 2{coin} from a player.</t>
-  </si>
-  <si>
-    <t>Give a player 1 item: Take 4{coin} from them.</t>
-  </si>
-  <si>
     <t>behavior.Trick</t>
   </si>
   <si>
-    <t>Give a player 6{coin}: they give you 3 items.</t>
-  </si>
-  <si>
     <t>Trick</t>
   </si>
   <si>
@@ -488,60 +364,33 @@
     <t>Give a player 1{coin}: they give you an item.</t>
   </si>
   <si>
-    <t>Give a player 3{coin}: they give you 2 items.</t>
-  </si>
-  <si>
     <t>behavior.Vomit</t>
   </si>
   <si>
-    <t>-4{coin}: Bury 3 treasures.</t>
-  </si>
-  <si>
     <t>Vomit</t>
   </si>
   <si>
     <t>Vomit.png</t>
   </si>
   <si>
-    <t>-2{coin}: Bury 2 treasures.</t>
-  </si>
-  <si>
     <t>behavior.Whine</t>
   </si>
   <si>
-    <t>: +6{coin}, Add 3 treasures from your loot to the Captain's Greed.</t>
-  </si>
-  <si>
     <t>Whine</t>
   </si>
   <si>
     <t>Whine.png</t>
   </si>
   <si>
-    <t>: +2{coin}, Add a treasure from your loot to the Captain's Greed.</t>
-  </si>
-  <si>
-    <t>: +4{coin}, Add 2 treasures from your loot to the Captain's Greed.</t>
-  </si>
-  <si>
     <t>behavior.Yell</t>
   </si>
   <si>
-    <t>-2{coin}: reveal the next 3 behavior cards. Take another turn.</t>
-  </si>
-  <si>
     <t>Yell</t>
   </si>
   <si>
     <t>Yell.png</t>
   </si>
   <si>
-    <t>: reveal the next behavior card. Take another turn.</t>
-  </si>
-  <si>
-    <t>-1{coin}: reveal the next 2 behavior cards. Take another turn.</t>
-  </si>
-  <si>
     <t>Gem</t>
   </si>
   <si>
@@ -554,24 +403,12 @@
     <t>Jewelry</t>
   </si>
   <si>
-    <t>Pearl</t>
-  </si>
-  <si>
-    <t>Trinket</t>
-  </si>
-  <si>
     <t>{heart}Coins</t>
   </si>
   <si>
     <t>{heart}Gems</t>
   </si>
   <si>
-    <t>{heart}Trinkets</t>
-  </si>
-  <si>
-    <t>{heart}Pearls</t>
-  </si>
-  <si>
     <t>{heart}Jewelry</t>
   </si>
   <si>
@@ -683,12 +520,6 @@
     <t>If you have the most {coin}s at the end of the game, gain 10 extra points.</t>
   </si>
   <si>
-    <t>Gain {coin}.</t>
-  </si>
-  <si>
-    <t>Whenever you lose an item without gaining a treasure, you main Gain {coin} from the captain.</t>
-  </si>
-  <si>
     <t>When any other player activates this card, take {coin} from them. You may not activate it.</t>
   </si>
   <si>
@@ -696,6 +527,201 @@
   </si>
   <si>
     <t>Gain {coin}. Swap a treasure with the Captain's Greed.</t>
+  </si>
+  <si>
+    <t>c22</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>If you are about to get shot, but you have 3 more of the obsession than everyone else, then you don't get shot.</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>Rum</t>
+  </si>
+  <si>
+    <t>weapon.png</t>
+  </si>
+  <si>
+    <t>rum.png</t>
+  </si>
+  <si>
+    <t>GreedWeapons</t>
+  </si>
+  <si>
+    <t>GreedRum</t>
+  </si>
+  <si>
+    <t>{heart}Rum</t>
+  </si>
+  <si>
+    <t>The player(s) with the most treasure lose half their treasure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Swap a treasure, bury a treasure, or +1{coin}.</t>
+  </si>
+  <si>
+    <t>: Bury an item then Swap a treasure</t>
+  </si>
+  <si>
+    <t>A player may bury {coin}: Swap 2 items with them.</t>
+  </si>
+  <si>
+    <t>: Add 2 treasure from the Captain's loot to the Greed.</t>
+  </si>
+  <si>
+    <t>Give a player 2{coin}: Add 2 treasures from their loot to the Greed.</t>
+  </si>
+  <si>
+    <t>Give a player 1{coin}: Take an item from them.</t>
+  </si>
+  <si>
+    <t>: +2{coin}. Choose a player. Trade a treasure with that player.</t>
+  </si>
+  <si>
+    <t>-2{coin}:Swap a treasure with 1 in the Greed.</t>
+  </si>
+  <si>
+    <t>A player may bury {coin}: Take 2{coin}s from that player.</t>
+  </si>
+  <si>
+    <t>-1{coin}: reveal the next behavior card. Take another turn.</t>
+  </si>
+  <si>
+    <t>-1{coin}: Add or Remove a Captain cube then take another turn.</t>
+  </si>
+  <si>
+    <t>-3{coin}: Gain 2 items.</t>
+  </si>
+  <si>
+    <t>Lose 2 item: +7{coin}.</t>
+  </si>
+  <si>
+    <t>-2{coin}: Swap 2 treasures.</t>
+  </si>
+  <si>
+    <t>Give a player a {coin}: Swap 3 items with them.</t>
+  </si>
+  <si>
+    <t>Put 6{coin} in the Greed: Gain 2 treasures from the Greed.</t>
+  </si>
+  <si>
+    <t>-1{coin}: Add 3 treasures from the Captain's loot to the Greed.</t>
+  </si>
+  <si>
+    <t>Give a player 4{coin}: Add 3 treasures from their loot to the Greed.</t>
+  </si>
+  <si>
+    <t>Give a player 4{coin}: Take 2 items from them.</t>
+  </si>
+  <si>
+    <t>:+2{coin}. Choose a player. Trade 2 treasures with that player.</t>
+  </si>
+  <si>
+    <t>Add 1 treasure to the Greed: Bury 3 treasure.</t>
+  </si>
+  <si>
+    <t>-6{coin}:Swap 2 treasures with 2 in the Greed.</t>
+  </si>
+  <si>
+    <t>A player may bury 2 items: Take 3{coin}s from that player.</t>
+  </si>
+  <si>
+    <t>Give a player 3{coin}s: they give you 2 items.</t>
+  </si>
+  <si>
+    <t>Add 1 treasure to the Greed: +3{coin}.</t>
+  </si>
+  <si>
+    <t>-2{coin}: reveal the next 2 behavior cards. Take another turn.</t>
+  </si>
+  <si>
+    <t>-2{coin}: Add or remove 2 Captain cubes then take another turn.</t>
+  </si>
+  <si>
+    <t>-6{coin}: Gain 3 items.</t>
+  </si>
+  <si>
+    <t>Lose 3 items: +9{coin}.</t>
+  </si>
+  <si>
+    <t>-4{coin}: Swap 3 treasures.</t>
+  </si>
+  <si>
+    <t>Give a player 2 {coin}s: Swap 4 items with them.</t>
+  </si>
+  <si>
+    <t>Put 10{coin} in the Greed: Gain 3 treasures from the Greed.</t>
+  </si>
+  <si>
+    <t>Give a player 6{coin}: Add 4 treasures from their loot to the Greed.</t>
+  </si>
+  <si>
+    <t>Give a player 7{coin}: Take 3 items from them.</t>
+  </si>
+  <si>
+    <t>:+2{coin}. Choose a player. Trade 3 treasures with that player.</t>
+  </si>
+  <si>
+    <t>Add 2 treasure to the Greed: Bury 3 treasure.</t>
+  </si>
+  <si>
+    <t>-10{coin}:Swap 3 treasures with 3 in the Greed.</t>
+  </si>
+  <si>
+    <t>A player may bury 4 treasures: Take 4{coin}s from that player.</t>
+  </si>
+  <si>
+    <t>Give a player 5{coin}s: they give you 3 items.</t>
+  </si>
+  <si>
+    <t>-3{coin}: reveal the next 3 behavior cards. Take another turn.</t>
+  </si>
+  <si>
+    <t>-2{coin}: look at the bottom 3 cards of the Greed deck.</t>
+  </si>
+  <si>
+    <t>-3{coin}: Add or remove 3 Captain cubes then take another turn.</t>
+  </si>
+  <si>
+    <t>: Bury 3 treasure.</t>
+  </si>
+  <si>
+    <t>-1{coin}: Bury 4 treasures.</t>
+  </si>
+  <si>
+    <t>-2{coin}: Bury 5 treasures.</t>
+  </si>
+  <si>
+    <t>-3{coin}: Bury 6 treasures.</t>
+  </si>
+  <si>
+    <t>Add 2 treasures to the Greed: +3{coin}.</t>
+  </si>
+  <si>
+    <t>Add 3 treasures to the Greed: +3{coin}.</t>
+  </si>
+  <si>
+    <t>{heart}Weapons</t>
+  </si>
+  <si>
+    <t>Put 2{coin} in the Greed: Gain a treasure from the Greed.</t>
+  </si>
+  <si>
+    <t>-2{coin}: Add 4 treasures from the Captain's loot to the Greed.</t>
+  </si>
+  <si>
+    <t>Whenever you lose an item without gaining a treasure, you may Gain {coin} from the captain.</t>
+  </si>
+  <si>
+    <t>Gain 2{coin}.</t>
+  </si>
+  <si>
+    <t>Coins are worth 2x points, and earn bonus points as if they were items.</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1045,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1134,6 +1160,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1179,8 +1214,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1539,20 +1588,20 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1572,84 +1621,84 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1662,22 +1711,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1703,524 +1752,524 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>57</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
         <v>58</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>59</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>64</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>65</v>
       </c>
-      <c r="H3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
         <v>66</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>68</v>
       </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
         <v>69</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>70</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
         <v>71</v>
       </c>
-      <c r="H4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
         <v>72</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="F20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H20" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>81</v>
       </c>
-      <c r="G6" t="s">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
         <v>82</v>
       </c>
-      <c r="H6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
         <v>83</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" t="s">
-        <v>129</v>
-      </c>
-      <c r="G14" t="s">
-        <v>130</v>
-      </c>
-      <c r="H14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" t="s">
-        <v>136</v>
-      </c>
-      <c r="H15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" t="s">
-        <v>146</v>
-      </c>
-      <c r="F17" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" t="s">
-        <v>148</v>
-      </c>
-      <c r="H17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" t="s">
-        <v>153</v>
-      </c>
-      <c r="G18" t="s">
-        <v>154</v>
-      </c>
-      <c r="H18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" t="s">
-        <v>158</v>
-      </c>
-      <c r="F19" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>162</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" t="s">
-        <v>164</v>
-      </c>
-      <c r="G20" t="s">
-        <v>165</v>
-      </c>
-      <c r="H20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" t="s">
-        <v>169</v>
-      </c>
-      <c r="F21" t="s">
-        <v>170</v>
-      </c>
-      <c r="G21" t="s">
-        <v>171</v>
-      </c>
-      <c r="H21" t="s">
-        <v>167</v>
+      <c r="F21" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2233,21 +2282,21 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2270,7 +2319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2284,13 +2333,13 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2302,21 +2351,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2336,224 +2385,224 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F9" t="s">
         <v>35</v>
       </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="F10" t="s">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2563,24 +2612,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA65E2A-2EDF-4996-AE03-DC2F73911E4D}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="114.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="114.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="79.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2603,217 +2652,234 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="F7" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="G7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="F12" t="s">
-        <v>221</v>
+        <v>161</v>
       </c>
       <c r="G12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="E13" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="G13" t="s">
-        <v>223</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/CardFormatter/Data/GrabTheLoot/a_gtl.Datafile.xlsx
+++ b/CardFormatter/Data/GrabTheLoot/a_gtl.Datafile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mike\CardGenerator\CardFormatter\Data\GrabTheLoot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EE9E4E-CA10-464F-BA71-D646B324C4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A7E8DD-BB44-40F4-9971-5EA87DFAF7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treasures" sheetId="1" r:id="rId1"/>
@@ -415,9 +415,6 @@
     <t>c1</t>
   </si>
   <si>
-    <t>When you Lose a treasure to the captain, you may place it into the Captain's Greed.</t>
-  </si>
-  <si>
     <t>Trevyn</t>
   </si>
   <si>
@@ -451,9 +448,6 @@
     <t>c9</t>
   </si>
   <si>
-    <t>Instead of Gaining a treasure, you may Swap a treasure with the Captain's Greed.</t>
-  </si>
-  <si>
     <t>Dan</t>
   </si>
   <si>
@@ -478,18 +472,12 @@
     <t>c15</t>
   </si>
   <si>
-    <t>When you gain and lose a treasure in the same round, you may also add a treasure from the Captain's loot to the Captain's Greed.</t>
-  </si>
-  <si>
     <t>Berrett</t>
   </si>
   <si>
     <t>c17</t>
   </si>
   <si>
-    <t>At the end of the game before anyone gets shot; Bury two of your treasures.</t>
-  </si>
-  <si>
     <t>Dwayne</t>
   </si>
   <si>
@@ -526,18 +514,12 @@
     <t>When any other player activates this card, take {coin} from them.</t>
   </si>
   <si>
-    <t>Gain {coin}. Swap a treasure with the Captain's Greed.</t>
-  </si>
-  <si>
     <t>c22</t>
   </si>
   <si>
     <t>Jack</t>
   </si>
   <si>
-    <t>If you are about to get shot, but you have 3 more of the obsession than everyone else, then you don't get shot.</t>
-  </si>
-  <si>
     <t>Weapon</t>
   </si>
   <si>
@@ -592,9 +574,6 @@
     <t>-1{coin}: reveal the next behavior card. Take another turn.</t>
   </si>
   <si>
-    <t>-1{coin}: Add or Remove a Captain cube then take another turn.</t>
-  </si>
-  <si>
     <t>-3{coin}: Gain 2 items.</t>
   </si>
   <si>
@@ -640,9 +619,6 @@
     <t>-2{coin}: reveal the next 2 behavior cards. Take another turn.</t>
   </si>
   <si>
-    <t>-2{coin}: Add or remove 2 Captain cubes then take another turn.</t>
-  </si>
-  <si>
     <t>-6{coin}: Gain 3 items.</t>
   </si>
   <si>
@@ -685,9 +661,6 @@
     <t>-2{coin}: look at the bottom 3 cards of the Greed deck.</t>
   </si>
   <si>
-    <t>-3{coin}: Add or remove 3 Captain cubes then take another turn.</t>
-  </si>
-  <si>
     <t>: Bury 3 treasure.</t>
   </si>
   <si>
@@ -722,6 +695,33 @@
   </si>
   <si>
     <t>Coins are worth 2x points, and earn bonus points as if they were items.</t>
+  </si>
+  <si>
+    <t>-1{coin}: Add or Remove a Captain meeple then take another turn.</t>
+  </si>
+  <si>
+    <t>-2{coin}: Add or remove 2 Captain meeples then take another turn.</t>
+  </si>
+  <si>
+    <t>-3{coin}: Add or remove 3 Captain meeples then take another turn.</t>
+  </si>
+  <si>
+    <t>When you Lose a treasure to the captain, you may place it into the Greed.</t>
+  </si>
+  <si>
+    <t>Instead of Gaining a treasure, you may Swap a treasure with the Greed.</t>
+  </si>
+  <si>
+    <t>When you gain and lose a treasure in the same round, you may also add a treasure from the Captain's loot to the Greed.</t>
+  </si>
+  <si>
+    <t>Gain {coin}. Swap a treasure with the Greed.</t>
+  </si>
+  <si>
+    <t>Right before the game end effects occur; Bury two of your treasures.</t>
+  </si>
+  <si>
+    <t>Right before the game end effects occur; if you have at least 3 more of the obsession than everyone else bury all your treasure.</t>
   </si>
 </sst>
 </file>
@@ -1587,18 +1587,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1663,7 +1663,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -1675,15 +1675,15 @@
         <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1695,10 +1695,10 @@
         <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1712,7 +1712,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,10 +1772,10 @@
         <v>50</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1798,10 +1798,10 @@
         <v>55</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1821,13 +1821,13 @@
         <v>58</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1873,13 +1873,13 @@
         <v>66</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1899,13 +1899,13 @@
         <v>69</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1925,13 +1925,13 @@
         <v>77</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1951,13 +1951,13 @@
         <v>80</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1977,13 +1977,13 @@
         <v>86</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2003,13 +2003,13 @@
         <v>89</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2055,13 +2055,13 @@
         <v>98</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2081,13 +2081,13 @@
         <v>101</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2107,13 +2107,13 @@
         <v>104</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2136,10 +2136,10 @@
         <v>108</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2159,13 +2159,13 @@
         <v>111</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2185,13 +2185,13 @@
         <v>114</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2211,13 +2211,13 @@
         <v>117</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2243,7 +2243,7 @@
         <v>74</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2262,14 +2262,14 @@
       <c r="E21" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>216</v>
+      <c r="F21" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2339,7 +2339,7 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2351,17 +2351,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -2439,15 +2439,15 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -2459,10 +2459,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2582,7 +2582,7 @@
         <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2602,7 +2602,7 @@
         <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2614,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA65E2A-2EDF-4996-AE03-DC2F73911E4D}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2660,226 +2660,226 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" t="s">
         <v>126</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>127</v>
-      </c>
-      <c r="E2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
         <v>129</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" t="s">
-        <v>130</v>
-      </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>131</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>132</v>
       </c>
-      <c r="D4" t="s">
-        <v>133</v>
-      </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>134</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>135</v>
       </c>
-      <c r="D5" t="s">
-        <v>136</v>
-      </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" t="s">
         <v>137</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" t="s">
-        <v>139</v>
-      </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" t="s">
         <v>140</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" t="s">
-        <v>142</v>
-      </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" t="s">
         <v>143</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" t="s">
-        <v>145</v>
-      </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" t="s">
         <v>158</v>
       </c>
-      <c r="E13" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" t="s">
-        <v>162</v>
-      </c>
       <c r="G13" t="s">
-        <v>163</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
